--- a/techniqo/data_new_ticker/ITDC.xlsx
+++ b/techniqo/data_new_ticker/ITDC.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G1006"/>
+  <dimension ref="A1:G1008"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -35596,6 +35596,56 @@
         <v>18519</v>
       </c>
     </row>
+    <row r="1007">
+      <c r="A1007" t="inlineStr">
+        <is>
+          <t>15-09-2020</t>
+        </is>
+      </c>
+      <c r="B1007" t="n">
+        <v>234</v>
+      </c>
+      <c r="C1007" t="n">
+        <v>242.85</v>
+      </c>
+      <c r="D1007" t="n">
+        <v>232.85</v>
+      </c>
+      <c r="E1007" t="n">
+        <v>233.25</v>
+      </c>
+      <c r="F1007" t="n">
+        <v>24432</v>
+      </c>
+      <c r="G1007" t="n">
+        <v>18520</v>
+      </c>
+    </row>
+    <row r="1008">
+      <c r="A1008" t="inlineStr">
+        <is>
+          <t>16-09-2020</t>
+        </is>
+      </c>
+      <c r="B1008" t="n">
+        <v>233</v>
+      </c>
+      <c r="C1008" t="n">
+        <v>256.55</v>
+      </c>
+      <c r="D1008" t="n">
+        <v>232.05</v>
+      </c>
+      <c r="E1008" t="n">
+        <v>256.2</v>
+      </c>
+      <c r="F1008" t="n">
+        <v>202210</v>
+      </c>
+      <c r="G1008" t="n">
+        <v>18521</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/techniqo/data_new_ticker/ITDC.xlsx
+++ b/techniqo/data_new_ticker/ITDC.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G1008"/>
+  <dimension ref="A1:G1010"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -35646,6 +35646,56 @@
         <v>18521</v>
       </c>
     </row>
+    <row r="1009">
+      <c r="A1009" t="inlineStr">
+        <is>
+          <t>17-09-2020</t>
+        </is>
+      </c>
+      <c r="B1009" t="n">
+        <v>263</v>
+      </c>
+      <c r="C1009" t="n">
+        <v>274.8</v>
+      </c>
+      <c r="D1009" t="n">
+        <v>263</v>
+      </c>
+      <c r="E1009" t="n">
+        <v>270.25</v>
+      </c>
+      <c r="F1009" t="n">
+        <v>1420251</v>
+      </c>
+      <c r="G1009" t="n">
+        <v>18522</v>
+      </c>
+    </row>
+    <row r="1010">
+      <c r="A1010" t="inlineStr">
+        <is>
+          <t>18-09-2020</t>
+        </is>
+      </c>
+      <c r="B1010" t="n">
+        <v>265.25</v>
+      </c>
+      <c r="C1010" t="n">
+        <v>266.3</v>
+      </c>
+      <c r="D1010" t="n">
+        <v>256</v>
+      </c>
+      <c r="E1010" t="n">
+        <v>258.75</v>
+      </c>
+      <c r="F1010" t="n">
+        <v>87385</v>
+      </c>
+      <c r="G1010" t="n">
+        <v>18523</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
